--- a/biology/Mycologie/Hemitomes_congestum/Hemitomes_congestum.xlsx
+++ b/biology/Mycologie/Hemitomes_congestum/Hemitomes_congestum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemitomes
 Hemitomes congestum, l’Hémitome gnome, est une espèce de plantes à fleurs non chlorophylliennes de la famille des Éricacées. Présente dans les forêts de l'Ouest de l'Amérique du Nord, cette espèce parasite le réseau mycorhizien pour se nourrir. Il s'agit de l'unique espèce du genre Hemitomes.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemitomes congestum est une plante vivace herbacée sans tige, qui forme dans la litière forestière des masses racinaires composées de courtes racines rhyzomateuses cassantes d'où émergent une ou plusieurs inflorescences charnues de 2 à 10 cm de diamètre. Ces dernières sont composées de bractées, de couleur blanche à jaunâtre ou rose-rougeâtre et couverte d'écailles éparses et épaisses, qui porte des fleurs densément groupées. Ces fleurs à symétrie radiale, sans sépales, aux pétales poilus déchiquetés jaunâtres ou rosâtres, sont garnies de 8 à 10 étamines, entre lesquels se trouvent des disques nectarifères et un grand stigmate jaune et arrondi. Le fruit est une baie de 1 cm de diamètre, blanche et charnue contenant de 25 à 100 graines ovoïdes minuscules munies d'une matière collante. L'inflorescence ne persiste généralement pas après la dispersion des graines[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemitomes congestum est une plante vivace herbacée sans tige, qui forme dans la litière forestière des masses racinaires composées de courtes racines rhyzomateuses cassantes d'où émergent une ou plusieurs inflorescences charnues de 2 à 10 cm de diamètre. Ces dernières sont composées de bractées, de couleur blanche à jaunâtre ou rose-rougeâtre et couverte d'écailles éparses et épaisses, qui porte des fleurs densément groupées. Ces fleurs à symétrie radiale, sans sépales, aux pétales poilus déchiquetés jaunâtres ou rosâtres, sont garnies de 8 à 10 étamines, entre lesquels se trouvent des disques nectarifères et un grand stigmate jaune et arrondi. Le fruit est une baie de 1 cm de diamètre, blanche et charnue contenant de 25 à 100 graines ovoïdes minuscules munies d'une matière collante. L'inflorescence ne persiste généralement pas après la dispersion des graines,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les populations de l'Oregon (États-Unis) étudiées sont associées aux champignons du genre Hydnellum, par l'intermédiaire desquels elles absorbent la matière organique issue de la photosynthèse des arbres environnants. Il s'agit de mycohétérotrophie[2].
-Cette espèce pratique l'autopollinisation aussi bien que la pollinisation entomophile, des bourdons ayant été signalés visitant les fleurs. La dispersion des semences s'effectue vraisemblablement par l’intermédiaire des animaux grâce à la matière collante qui recouvre les graines[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les populations de l'Oregon (États-Unis) étudiées sont associées aux champignons du genre Hydnellum, par l'intermédiaire desquels elles absorbent la matière organique issue de la photosynthèse des arbres environnants. Il s'agit de mycohétérotrophie.
+Cette espèce pratique l'autopollinisation aussi bien que la pollinisation entomophile, des bourdons ayant été signalés visitant les fleurs. La dispersion des semences s'effectue vraisemblablement par l’intermédiaire des animaux grâce à la matière collante qui recouvre les graines. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce rare se rencontre le long de la côte-ouest de l'Amérique du Nord, en Colombie-Britannique (Canada), dans l'État de Washington, l’Oregon et la Californie (États-Unis). Elle vit jusqu'à 2 700 m d'altitude dans les forêts denses et sombres de feuillus et de conifères à l'instar des forêts de Séquoias[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce rare se rencontre le long de la côte-ouest de l'Amérique du Nord, en Colombie-Britannique (Canada), dans l'État de Washington, l’Oregon et la Californie (États-Unis). Elle vit jusqu'à 2 700 m d'altitude dans les forêts denses et sombres de feuillus et de conifères à l'instar des forêts de Séquoias.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se nomme en français « Hémitome gnome », en anglais gnome plant ou cone plant[3].
-Hemitomes congestum a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se nomme en français « Hémitome gnome », en anglais gnome plant ou cone plant.
+Hemitomes congestum a pour synonymes :
 Hemitomes pumilum Greene
 Hemitomes spicatum (A.Gray) A.Heller
 Hemitomes subterraneum (Eastw.) A.Heller
